--- a/xlsx/生物_intext.xlsx
+++ b/xlsx/生物_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="261">
   <si>
     <t>生物</t>
   </si>
@@ -29,7 +29,7 @@
     <t>生物圈</t>
   </si>
   <si>
-    <t>政策_政策_美國_生物</t>
+    <t>政策_政策_美国_生物</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%80%81%E7%B3%BB%E7%BB%9F</t>
@@ -65,7 +65,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%85%B8%E6%A1%BF%E8%8F%8C</t>
   </si>
   <si>
-    <t>大腸桿菌</t>
+    <t>大肠杆菌</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%9F%E6%A0%B8%E7%94%9F%E7%89%A9</t>
@@ -83,7 +83,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%95%88%E9%A1%9E</t>
   </si>
   <si>
-    <t>蕈類</t>
+    <t>蕈类</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%BF%E4%B8%BB</t>
@@ -107,13 +107,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AE%E7%B4%B0%E8%83%9E%E7%94%9F%E7%89%A9</t>
   </si>
   <si>
-    <t>單細胞生物</t>
+    <t>单细胞生物</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%9D%A6%E9%BB%83%E8%B5%A4%E8%9C%BB</t>
   </si>
   <si>
-    <t>蝦黃赤蜻</t>
+    <t>虾黄赤蜻</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E5%91%BD</t>
@@ -137,19 +137,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%A9%E7%A8%AE</t>
   </si>
   <si>
-    <t>物種</t>
+    <t>物种</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E9%99%B3%E4%BB%A3%E8%AC%9D</t>
   </si>
   <si>
-    <t>新陳代謝</t>
+    <t>新陈代谢</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%BA%E5%82%B3</t>
   </si>
   <si>
-    <t>遺傳</t>
+    <t>遗传</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%88%E6%88%90%E4%BB%A3%E8%B0%A2</t>
@@ -203,19 +203,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%B0%E8%83%9E%E6%A0%B8</t>
   </si>
   <si>
-    <t>細胞核</t>
+    <t>细胞核</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B2%92%E7%B7%9A%E9%AB%94</t>
   </si>
   <si>
-    <t>粒線體</t>
+    <t>粒线体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%89%E7%B6%A0%E7%B4%A0</t>
   </si>
   <si>
-    <t>葉綠素</t>
+    <t>叶绿素</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B6%E7%BB%BF%E4%BD%93</t>
@@ -239,7 +239,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E7%B4%B0%E8%83%9E%E7%94%9F%E7%89%A9</t>
   </si>
   <si>
-    <t>多細胞生物</t>
+    <t>多细胞生物</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%97%85%E6%AF%92</t>
@@ -251,13 +251,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%88%90%E9%95%B7</t>
   </si>
   <si>
-    <t>成長</t>
+    <t>成长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%A9%E6%87%89</t>
   </si>
   <si>
-    <t>適應</t>
+    <t>适应</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%94%E6%BF%80%E6%80%A7</t>
@@ -269,13 +269,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>運動</t>
+    <t>运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%8C%96%E5%AD%B8</t>
   </si>
   <si>
-    <t>生物化學</t>
+    <t>生物化学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/DNA</t>
@@ -287,7 +287,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%96%E5%AD%B8%E7%89%A9%E8%B3%AA</t>
   </si>
   <si>
-    <t>化學物質</t>
+    <t>化学物质</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E5%85%BB%E7%94%9F%E7%89%A9</t>
@@ -299,7 +299,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%95%B0%E7%87%9F%E7%94%9F%E7%89%A9</t>
   </si>
   <si>
-    <t>異營生物</t>
+    <t>异营生物</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A2%B3</t>
@@ -329,7 +329,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%9B%8B%E7%99%BD%E8%B3%AA</t>
   </si>
   <si>
-    <t>蛋白質</t>
+    <t>蛋白质</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%86%A3</t>
@@ -341,7 +341,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%84%82%E8%B3%AA</t>
   </si>
   <si>
-    <t>脂質</t>
+    <t>脂质</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%B8%E8%8B%B7%E9%85%B8</t>
@@ -359,7 +359,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%B3%A5%E5%98%8C%E5%91%A4</t>
   </si>
   <si>
-    <t>鳥嘌呤</t>
+    <t>鸟嘌呤</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%83%B8%E8%85%BA%E5%98%A7%E5%95%B6</t>
@@ -407,19 +407,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%86%A0%E5%8E%9F%E8%9B%8B%E7%99%BD</t>
   </si>
   <si>
-    <t>膠原蛋白</t>
+    <t>胶原蛋白</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BD%89%E9%8C%84%E5%9B%A0%E5%AD%90</t>
   </si>
   <si>
-    <t>轉錄因子</t>
+    <t>转录因子</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%B1%E6%9C%9F%E7%B4%A0</t>
   </si>
   <si>
-    <t>週期素</t>
+    <t>周期素</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BF%80%E7%B4%A0</t>
@@ -431,7 +431,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%8D%E7%96%AB%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>免疫系統</t>
+    <t>免疫系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8A%97%E4%BD%93</t>
@@ -467,7 +467,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%88%86%E9%A1%9E%E7%B8%BD%E8%A1%A8</t>
   </si>
   <si>
-    <t>生物分類總表</t>
+    <t>生物分类总表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%88%86%E7%B1%BB%E6%B3%95</t>
@@ -485,25 +485,22 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%88%86%E9%A1%9E%E5%AD%B8</t>
   </si>
   <si>
-    <t>生物分類學</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%86%E9%A1%9E%E5%96%AE%E5%85%83</t>
   </si>
   <si>
-    <t>分類單元</t>
+    <t>分类单元</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%AF%E5%BA%8F%E5%88%86%E9%A1%9E%E5%AD%B8</t>
   </si>
   <si>
-    <t>支序分類學</t>
+    <t>支序分类学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%86%E9%A1%9E%E9%9A%8E%E5%B1%A4</t>
   </si>
   <si>
-    <t>分類階層</t>
+    <t>分类阶层</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%9F_(%E7%94%9F%E7%89%A9)</t>
@@ -515,9 +512,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%A9%E7%A7%8D</t>
   </si>
   <si>
-    <t>物种</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%95%8C_(%E7%94%9F%E7%89%A9)</t>
   </si>
   <si>
@@ -575,7 +569,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%B1%AC</t>
   </si>
   <si>
-    <t>人屬</t>
+    <t>人属</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E7%AB%8B%E4%BA%BA</t>
@@ -593,13 +587,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8B%95%E7%89%A9%E7%95%8C</t>
   </si>
   <si>
-    <t>動物界</t>
+    <t>动物界</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%99%AC%E8%8F%8C%E9%AB%94</t>
   </si>
   <si>
-    <t>噬菌體</t>
+    <t>噬菌体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%B3%95%E5%85%B8</t>
@@ -677,7 +671,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E7%99%BC%E7%94%9F</t>
   </si>
   <si>
-    <t>自然發生</t>
+    <t>自然发生</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%90%8C%E8%B5%B7%E6%BA%90</t>
@@ -689,9 +683,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%AD%B8</t>
   </si>
   <si>
-    <t>生物學</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%86%E7%B1%BB%E5%AD%A6</t>
   </si>
   <si>
@@ -701,7 +692,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%94%E5%8C%96%E8%AB%96</t>
   </si>
   <si>
-    <t>演化論</t>
+    <t>演化论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%A0%E8%AF%B4%E7%94%9F%E7%89%A9</t>
@@ -719,19 +710,19 @@
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%89%A9%E8%B3%AA%E9%9A%8E%E5%B1%A4</t>
   </si>
   <si>
-    <t>Template talk-物質階層</t>
+    <t>Template talk-物质阶层</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%A9%E8%B3%AA</t>
   </si>
   <si>
-    <t>物質</t>
+    <t>物质</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>生物系統</t>
+    <t>生物系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%99%A8%E5%AE%98</t>
@@ -755,13 +746,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%B0%E8%83%9E</t>
   </si>
   <si>
-    <t>細胞</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%B0%E8%83%9E%E5%99%A8</t>
   </si>
   <si>
-    <t>細胞器</t>
+    <t>细胞器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%86%E5%AD%90%E7%94%9F%E7%89%A9%E5%AD%A6</t>
@@ -3442,7 +3430,7 @@
         <v>155</v>
       </c>
       <c r="F79" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G79" t="n">
         <v>3</v>
@@ -3468,10 +3456,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>156</v>
+      </c>
+      <c r="F80" t="s">
         <v>157</v>
-      </c>
-      <c r="F80" t="s">
-        <v>158</v>
       </c>
       <c r="G80" t="n">
         <v>2</v>
@@ -3497,10 +3485,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>158</v>
+      </c>
+      <c r="F81" t="s">
         <v>159</v>
-      </c>
-      <c r="F81" t="s">
-        <v>160</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3526,10 +3514,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>160</v>
+      </c>
+      <c r="F82" t="s">
         <v>161</v>
-      </c>
-      <c r="F82" t="s">
-        <v>162</v>
       </c>
       <c r="G82" t="n">
         <v>2</v>
@@ -3555,10 +3543,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>162</v>
+      </c>
+      <c r="F83" t="s">
         <v>163</v>
-      </c>
-      <c r="F83" t="s">
-        <v>164</v>
       </c>
       <c r="G83" t="n">
         <v>5</v>
@@ -3584,10 +3572,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="F84" t="s">
-        <v>166</v>
+        <v>40</v>
       </c>
       <c r="G84" t="n">
         <v>3</v>
@@ -3613,10 +3601,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F85" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G85" t="n">
         <v>6</v>
@@ -3642,10 +3630,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F86" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3671,10 +3659,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F87" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3700,10 +3688,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F88" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G88" t="n">
         <v>21</v>
@@ -3729,10 +3717,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F89" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G89" t="n">
         <v>17</v>
@@ -3758,10 +3746,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F90" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G90" t="n">
         <v>4</v>
@@ -3787,10 +3775,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F91" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G91" t="n">
         <v>9</v>
@@ -3816,10 +3804,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F92" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -3845,10 +3833,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F93" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -3874,10 +3862,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F94" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G94" t="n">
         <v>3</v>
@@ -3903,10 +3891,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F95" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -3932,10 +3920,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F96" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -3961,10 +3949,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F97" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -3990,10 +3978,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F98" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4048,10 +4036,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F100" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4077,10 +4065,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F101" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4106,10 +4094,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F102" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4135,10 +4123,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F103" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4164,10 +4152,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F104" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G104" t="n">
         <v>6</v>
@@ -4193,10 +4181,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F105" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4222,10 +4210,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F106" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4251,10 +4239,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F107" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G107" t="n">
         <v>5</v>
@@ -4280,10 +4268,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F108" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G108" t="n">
         <v>14</v>
@@ -4309,10 +4297,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F109" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G109" t="n">
         <v>2</v>
@@ -4338,10 +4326,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F110" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4367,10 +4355,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F111" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G111" t="n">
         <v>2</v>
@@ -4396,10 +4384,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F112" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4425,10 +4413,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F113" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G113" t="n">
         <v>2</v>
@@ -4454,10 +4442,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F114" t="s">
-        <v>224</v>
+        <v>14</v>
       </c>
       <c r="G114" t="n">
         <v>4</v>
@@ -4483,10 +4471,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F115" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G115" t="n">
         <v>2</v>
@@ -4512,10 +4500,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F116" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4541,10 +4529,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F117" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4570,10 +4558,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F118" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4599,10 +4587,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F119" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G119" t="n">
         <v>4</v>
@@ -4628,10 +4616,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F120" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -4657,10 +4645,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F121" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -4686,10 +4674,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F122" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G122" t="n">
         <v>2</v>
@@ -4715,10 +4703,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F123" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G123" t="n">
         <v>3</v>
@@ -4744,10 +4732,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F124" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G124" t="n">
         <v>2</v>
@@ -4773,10 +4761,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F125" t="s">
-        <v>246</v>
+        <v>210</v>
       </c>
       <c r="G125" t="n">
         <v>13</v>
@@ -4802,10 +4790,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F126" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G126" t="n">
         <v>2</v>
@@ -4831,10 +4819,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F127" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G127" t="n">
         <v>2</v>
@@ -4860,10 +4848,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F128" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G128" t="n">
         <v>22</v>
@@ -4889,10 +4877,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F129" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="G129" t="n">
         <v>3</v>
@@ -4918,10 +4906,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F130" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -4947,10 +4935,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F131" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="G131" t="n">
         <v>9</v>
@@ -4976,10 +4964,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F132" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5005,10 +4993,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F133" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5034,10 +5022,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F134" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>

--- a/xlsx/生物_intext.xlsx
+++ b/xlsx/生物_intext.xlsx
@@ -29,7 +29,7 @@
     <t>生物圈</t>
   </si>
   <si>
-    <t>政策_政策_美國_生物</t>
+    <t>体育运动_体育运动_文化_生物</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E6%80%81%E7%B3%BB%E7%BB%9F</t>
